--- a/biology/Médecine/Ernst_Augustinsson/Ernst_Augustinsson.xlsx
+++ b/biology/Médecine/Ernst_Augustinsson/Ernst_Augustinsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johan Ernst Augustinsson, né le 25 juin 1850 à Jönköping et mort le 26 mars 1925 à Halmstad, est un médecin suédois.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johan Ernst Augustinsson naît le 25 juin 1850 à Jönköping[1],[2]. Il est le fils de Carl August A. et de Beata Kristina Elisabet Kulberg[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Ernst Augustinsson naît le 25 juin 1850 à Jönköping,. Il est le fils de Carl August A. et de Beata Kristina Elisabet Kulberg.
 Il devient étudiant à Uppsala en 1871, suit un Bachelor of Medical Sciences (en) en 1877 et est licencié en médecine à l'institut Karolinska de Stockholm en 1882. Il est chirurgien-adjoint et médecin-adjoint à l'hôpital Sabbatsberg (en) de Stockholm de 1880 à 1883, t.f. médecin à Halmstad de 1882 à 1883, médecin à Oskarshamn de 1883 à 1884 et praticien à Halmstad de 1883.
-Il participe en 1897 au congrès international de médecine à Moscou[3].
+Il participe en 1897 au congrès international de médecine à Moscou.
 Il est contraint de fermer son cabinet dix ans avant son décès pour cause de maladie de Parkinson. Il meurt d'une pneumonie.
 </t>
         </is>
